--- a/AIIP.xlsx
+++ b/AIIP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AIIP internship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8D451C-206A-4EF0-B642-AEDB141C7456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A07CAC-C945-470C-938F-0C253251ADD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{644CA440-6242-4FA4-A9BB-86A1B4E1F082}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>No</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>All cmd in git and how to practical work</t>
+  </si>
+  <si>
+    <t>Brijesh Update</t>
   </si>
 </sst>
 </file>
@@ -460,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E31F520-5F27-4A74-8191-3BDCD56E615D}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,7 +474,7 @@
     <col min="2" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,11 +501,12 @@
       <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P1" s="3"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -525,7 +529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -548,12 +552,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
@@ -576,7 +580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4</v>
       </c>
@@ -599,17 +603,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>5</v>
       </c>
@@ -632,9 +636,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/AIIP.xlsx
+++ b/AIIP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AIIP internship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A07CAC-C945-470C-938F-0C253251ADD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8975D4B9-4C48-400C-B536-CBD1F4BA88AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{644CA440-6242-4FA4-A9BB-86A1B4E1F082}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>No</t>
   </si>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>All cmd in git and how to practical work</t>
-  </si>
-  <si>
-    <t>Brijesh Update</t>
   </si>
 </sst>
 </file>
@@ -463,7 +460,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E31F520-5F27-4A74-8191-3BDCD56E615D}">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
@@ -641,11 +638,6 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/AIIP.xlsx
+++ b/AIIP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AIIP internship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8975D4B9-4C48-400C-B536-CBD1F4BA88AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2C852B-7F97-4C8A-9398-FC7293E92E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{644CA440-6242-4FA4-A9BB-86A1B4E1F082}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>No</t>
   </si>
@@ -44,9 +44,6 @@
     <t>End Date</t>
   </si>
   <si>
-    <t>Topic</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -56,15 +53,9 @@
     <t>Description</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>basic fundamentals of linux and cloud</t>
   </si>
   <si>
-    <t>Task</t>
-  </si>
-  <si>
     <t>git, SCM, Version control</t>
   </si>
   <si>
@@ -93,6 +84,39 @@
   </si>
   <si>
     <t>All cmd in git and how to practical work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assigned Task </t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>install and setup linux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">download  virtual machine or </t>
+  </si>
+  <si>
+    <t xml:space="preserve">any tool </t>
+  </si>
+  <si>
+    <t>introduction to git,scm,version-</t>
+  </si>
+  <si>
+    <t>control,pull,push,merging</t>
+  </si>
+  <si>
+    <t>all type of permision</t>
+  </si>
+  <si>
+    <t>clear basic fundamentals</t>
+  </si>
+  <si>
+    <t>perform all git cmd and upload</t>
+  </si>
+  <si>
+    <t>file in git hub</t>
   </si>
 </sst>
 </file>
@@ -460,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E31F520-5F27-4A74-8191-3BDCD56E615D}">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,7 +495,7 @@
     <col min="2" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,160 +506,189 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1"/>
       <c r="H1" s="4"/>
       <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="O1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="3"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="3"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>44707</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
+      <c r="C3" s="2">
+        <v>44708</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="M3" t="s">
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>44712</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44715</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="K6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2">
+        <v>44718</v>
+      </c>
+      <c r="C9" s="2">
+        <v>44728</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <v>10</v>
+      </c>
+      <c r="K9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" t="s">
+        <v>9</v>
+      </c>
+      <c r="R9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2">
+        <v>44727</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44727</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" t="s">
+        <v>9</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
         <v>12</v>
       </c>
-      <c r="O3">
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2">
+        <v>44728</v>
+      </c>
+      <c r="C15" s="2">
+        <v>44728</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2">
-        <v>44712</v>
-      </c>
-      <c r="C5" s="2">
-        <v>44715</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-      <c r="M5" t="s">
-        <v>12</v>
-      </c>
-      <c r="O5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="K15" t="s">
+        <v>26</v>
+      </c>
+      <c r="O15" t="s">
+        <v>9</v>
+      </c>
+      <c r="R15">
         <v>3</v>
       </c>
-      <c r="B8" s="2">
-        <v>44718</v>
-      </c>
-      <c r="C8" s="2">
-        <v>44728</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8">
-        <v>10</v>
-      </c>
-      <c r="M8" t="s">
-        <v>12</v>
-      </c>
-      <c r="O8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2">
-        <v>44727</v>
-      </c>
-      <c r="C10" s="2">
-        <v>44727</v>
-      </c>
-      <c r="E10" t="s">
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
         <v>16</v>
       </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="M10" t="s">
-        <v>12</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>5</v>
-      </c>
-      <c r="B14" s="2">
-        <v>44728</v>
-      </c>
-      <c r="C14" s="2">
-        <v>44728</v>
-      </c>
-      <c r="E14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="M14" t="s">
-        <v>12</v>
-      </c>
-      <c r="O14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="E15" t="s">
-        <v>19</v>
+      <c r="K16" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/AIIP.xlsx
+++ b/AIIP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AIIP internship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2C852B-7F97-4C8A-9398-FC7293E92E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9F90BE-E8BF-4BD9-846E-713CDAFF0E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{644CA440-6242-4FA4-A9BB-86A1B4E1F082}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>No</t>
   </si>
@@ -117,6 +117,45 @@
   </si>
   <si>
     <t>file in git hub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start cloud practical </t>
+  </si>
+  <si>
+    <t>perform all type of permision</t>
+  </si>
+  <si>
+    <t>file permision in linux,</t>
+  </si>
+  <si>
+    <t>practice file command and permision cmd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">practice of vim editor and neno editor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">practice </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rmdir command </t>
+  </si>
+  <si>
+    <t>log management, ssh , apache web server</t>
+  </si>
+  <si>
+    <t>practice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">package management using </t>
+  </si>
+  <si>
+    <t xml:space="preserve">yum and "rpm" , </t>
+  </si>
+  <si>
+    <t>usermanagement and group management</t>
+  </si>
+  <si>
+    <t>Kernal, Shell</t>
   </si>
 </sst>
 </file>
@@ -484,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E31F520-5F27-4A74-8191-3BDCD56E615D}">
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -691,6 +730,140 @@
         <v>27</v>
       </c>
     </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18" s="2">
+        <v>44729</v>
+      </c>
+      <c r="C18" s="2">
+        <v>44730</v>
+      </c>
+      <c r="E18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="K18" t="s">
+        <v>29</v>
+      </c>
+      <c r="O18" t="s">
+        <v>9</v>
+      </c>
+      <c r="R18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21" s="2">
+        <v>44732</v>
+      </c>
+      <c r="C21" s="2">
+        <v>44735</v>
+      </c>
+      <c r="E21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="K21" t="s">
+        <v>33</v>
+      </c>
+      <c r="O21" t="s">
+        <v>9</v>
+      </c>
+      <c r="R21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>8</v>
+      </c>
+      <c r="B25" s="2">
+        <v>44736</v>
+      </c>
+      <c r="C25" s="2">
+        <v>44737</v>
+      </c>
+      <c r="E25" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="K25" t="s">
+        <v>36</v>
+      </c>
+      <c r="O25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>9</v>
+      </c>
+      <c r="B27" s="2">
+        <v>44739</v>
+      </c>
+      <c r="C27" s="2">
+        <v>44739</v>
+      </c>
+      <c r="E27" t="s">
+        <v>37</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="K27" t="s">
+        <v>36</v>
+      </c>
+      <c r="O27" t="s">
+        <v>9</v>
+      </c>
+      <c r="R27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E30" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/AIIP.xlsx
+++ b/AIIP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AIIP internship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9F90BE-E8BF-4BD9-846E-713CDAFF0E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B31C2FE-4016-46B3-AC67-A1D5D6107E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{644CA440-6242-4FA4-A9BB-86A1B4E1F082}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t>No</t>
   </si>
@@ -156,6 +156,21 @@
   </si>
   <si>
     <t>Kernal, Shell</t>
+  </si>
+  <si>
+    <t>Service Management</t>
+  </si>
+  <si>
+    <t>Log management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSH </t>
+  </si>
+  <si>
+    <t>Package managment using "yum", "rpm"</t>
+  </si>
+  <si>
+    <t>Apache Web Server</t>
   </si>
 </sst>
 </file>
@@ -523,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E31F520-5F27-4A74-8191-3BDCD56E615D}">
-  <dimension ref="A1:S30"/>
+  <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -864,6 +879,50 @@
         <v>40</v>
       </c>
     </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32" s="2">
+        <v>44746</v>
+      </c>
+      <c r="C32" s="2">
+        <v>44747</v>
+      </c>
+      <c r="E32" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32" t="s">
+        <v>42</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="K32" t="s">
+        <v>36</v>
+      </c>
+      <c r="O32" t="s">
+        <v>9</v>
+      </c>
+      <c r="R32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E35" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
